--- a/writing/Table5_PCA_ImportanceOfComponents.xlsx
+++ b/writing/Table5_PCA_ImportanceOfComponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25887279-A844-4107-8A54-AC2506414C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86E8382-D07B-46B9-9510-1C8926985F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFE27C23-5A5B-4727-8843-8777F56AF1C9}"/>
+    <workbookView xWindow="1944" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{EFE27C23-5A5B-4727-8843-8777F56AF1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Importance of components:</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Cumulative Proportion</t>
+  </si>
+  <si>
+    <t>Sporophytic</t>
+  </si>
+  <si>
+    <t>Gametophytic</t>
   </si>
 </sst>
 </file>
@@ -78,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -241,29 +255,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -279,6 +304,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244931F5-6221-43E1-B08E-2495F959CFA8}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,28 +688,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>1.353</v>
+        <v>1.3143</v>
       </c>
       <c r="C3" s="3">
-        <v>1.2373000000000001</v>
+        <v>1.2161</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0978000000000001</v>
+        <v>1.1458999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>1.0313000000000001</v>
+        <v>1.0205</v>
       </c>
       <c r="F3" s="3">
-        <v>0.91090000000000004</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="G3" s="3">
-        <v>0.79025000000000001</v>
+        <v>0.7893</v>
       </c>
       <c r="H3" s="3">
-        <v>0.71550000000000002</v>
+        <v>0.68442999999999998</v>
       </c>
       <c r="I3" s="4">
-        <v>0.63439000000000001</v>
+        <v>0.64332</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -683,28 +717,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>0.22900000000000001</v>
+        <v>0.21590000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>0.19139999999999999</v>
+        <v>0.18490000000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>0.15060000000000001</v>
+        <v>0.1641</v>
       </c>
       <c r="E4" s="3">
-        <v>0.13289999999999999</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1037</v>
+        <v>0.1167</v>
       </c>
       <c r="G4" s="3">
-        <v>7.8060000000000004E-2</v>
+        <v>7.7869999999999995E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>5.8560000000000001E-2</v>
       </c>
       <c r="I4" s="4">
-        <v>5.0310000000000001E-2</v>
+        <v>5.1729999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -712,27 +746,217 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>0.22900000000000001</v>
+        <v>0.21590000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>0.42030000000000001</v>
+        <v>0.40079999999999999</v>
       </c>
       <c r="D5" s="6">
-        <v>0.57099999999999995</v>
+        <v>0.56489999999999996</v>
       </c>
       <c r="E5" s="6">
-        <v>0.70389999999999997</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="F5" s="6">
-        <v>0.80759999999999998</v>
+        <v>0.81179999999999997</v>
       </c>
       <c r="G5" s="6">
-        <v>0.88568999999999998</v>
+        <v>0.88971</v>
       </c>
       <c r="H5" s="6">
-        <v>0.94969999999999999</v>
+        <v>0.94826999999999995</v>
       </c>
       <c r="I5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1.1588000000000001</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1.1372</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1.0038</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.80579999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.2238</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.2155</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.1283</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.1082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.2238</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.43940000000000001</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1.7028000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.28</v>
+      </c>
+      <c r="D16">
+        <v>1.0045999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F16">
+        <v>7.9129999999999999E-4</v>
+      </c>
+      <c r="G16">
+        <v>1.021E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="E17">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
         <v>1</v>
       </c>
     </row>
